--- a/TestDatas/自动化用例.xlsx
+++ b/TestDatas/自动化用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 Carbon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72461CD-DED1-4070-A69C-F4F5979B29E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0B267-F6A6-4E62-8DAA-51571F1B5585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>所属模块</t>
   </si>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点位告警top57天的数据显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点位告警top5累计的数据显示正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +611,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +624,7 @@
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -889,6 +897,18 @@
       <c r="D11" t="s">
         <v>48</v>
       </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -902,6 +922,18 @@
       </c>
       <c r="D12" t="s">
         <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/自动化用例.xlsx
+++ b/TestDatas/自动化用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0B267-F6A6-4E62-8DAA-51571F1B5585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4491E6-CBD1-40DC-A2EB-CB22EBEFB301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/TestDatas/自动化用例.xlsx
+++ b/TestDatas/自动化用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4491E6-CBD1-40DC-A2EB-CB22EBEFB301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295DA6E-0C19-4836-9730-F0D02CB4BF10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>所属模块</t>
   </si>
@@ -238,6 +238,412 @@
   </si>
   <si>
     <t>1、点位告警top5累计的数据显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_设备类型过滤_视频流相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视屏流相机筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、筛选功能生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_设备类型过滤_智能抓拍机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能抓拍机筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_设备类型过滤_GB28181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_设备类型过滤_1400视图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB28181设备筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400视图库筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202005_02001_TC050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图背景筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POI点位筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政标注筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备状态过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备状态过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图元素过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图背景</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图元素过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_POI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图元素过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道路</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图元素过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行政标注</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +673,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -310,22 +729,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,331 +1044,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="33.125" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/TestDatas/自动化用例.xlsx
+++ b/TestDatas/自动化用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295DA6E-0C19-4836-9730-F0D02CB4BF10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469BF0D4-162D-494B-B83D-5E9DF4535BD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>所属模块</t>
   </si>
@@ -644,6 +644,14 @@
       </rPr>
       <t>行政标注</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -764,6 +772,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1044,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I2" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1069,7 @@
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1094,11 @@
       <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1123,11 @@
       <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1137,8 +1152,11 @@
       <c r="H3" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1163,8 +1181,11 @@
       <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1189,8 +1210,11 @@
       <c r="H5" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1215,8 +1239,11 @@
       <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1241,8 +1268,11 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1267,8 +1297,11 @@
       <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1293,8 +1326,11 @@
       <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1319,8 +1355,11 @@
       <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1345,8 +1384,11 @@
       <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1371,8 +1413,11 @@
       <c r="H12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1397,8 +1442,11 @@
       <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -1423,8 +1471,11 @@
       <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -1449,8 +1500,11 @@
       <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
@@ -1475,8 +1529,11 @@
       <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -1501,8 +1558,11 @@
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
@@ -1527,8 +1587,11 @@
       <c r="H18" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -1553,8 +1616,11 @@
       <c r="H19" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -1579,8 +1645,11 @@
       <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
@@ -1605,8 +1674,11 @@
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -1630,6 +1702,9 @@
       </c>
       <c r="H22" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
